--- a/data/trans_camb/P2A_enfcro_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_enfcro_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>11.29885421358926</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13.74537195353419</v>
+        <v>13.7453719535342</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>26.9505419204965</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.349146641941102</v>
+        <v>9.161710680678008</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.610600963432495</v>
+        <v>2.820527600737794</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.854178407944207</v>
+        <v>5.428616127918983</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18.30451116085265</v>
+        <v>18.30067122008133</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.003759451737768</v>
+        <v>7.050149679543694</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.382277785369056</v>
+        <v>7.742480032513106</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>16.03378918602145</v>
+        <v>16.50835669527353</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>7.22058088475596</v>
+        <v>7.530294725405795</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>8.426584254709548</v>
+        <v>8.305779788085351</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>27.00018546216823</v>
+        <v>25.81663107351936</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.64097214689228</v>
+        <v>19.56179869307284</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21.57626284533891</v>
+        <v>21.61564680054256</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35.05504615059432</v>
+        <v>35.11158006207588</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>23.94382409190856</v>
+        <v>23.41238179826879</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>22.42217651921523</v>
+        <v>22.83470692355879</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>28.18255160967676</v>
+        <v>28.30078172447082</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>19.42677481054908</v>
+        <v>19.22482414152</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>20.21818241802542</v>
+        <v>20.04698046902091</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.2699628920656616</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.3284174036542019</v>
+        <v>0.3284174036542021</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.5411624223941182</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2000472790362371</v>
+        <v>0.2049438034921551</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.03659717092936405</v>
+        <v>0.05946156578639841</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.105490982639119</v>
+        <v>0.1154821145507935</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.333776414010881</v>
+        <v>0.3285825926274969</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1325281814849367</v>
+        <v>0.1311421939387676</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1157589127039118</v>
+        <v>0.1415223385019111</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3279910384300804</v>
+        <v>0.3332045030605138</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1477469578349716</v>
+        <v>0.1497995749589819</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1697259744033871</v>
+        <v>0.1671108893294548</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.719690093247298</v>
+        <v>0.7033258560818694</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5279378173336052</v>
+        <v>0.5216879401903262</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5763213294314375</v>
+        <v>0.5873434828106486</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7929527859879711</v>
+        <v>0.7749297478475659</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5481562189736542</v>
+        <v>0.5237571657014403</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5119716610996164</v>
+        <v>0.5158342216961131</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6624224918544278</v>
+        <v>0.6687033597791713</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4481771132293639</v>
+        <v>0.4436833028679858</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4842511188875228</v>
+        <v>0.4802055991184667</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>15.71071371275969</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-7.907200333656999</v>
+        <v>-7.907200333656994</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>8.231129399313343</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.98000297945232</v>
+        <v>4.47966171156296</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>9.439137836137247</v>
+        <v>8.865470996635583</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-14.63074068559376</v>
+        <v>-14.64712123622401</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.303311398692419</v>
+        <v>2.475141851610887</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.163536132937751</v>
+        <v>4.303351078720532</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-28.21428602392771</v>
+        <v>-28.54293456433594</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4.816420987835701</v>
+        <v>5.059166105146604</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.142146745431145</v>
+        <v>8.533410780728495</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-19.51613098937528</v>
+        <v>-19.72060649040666</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.07621051411416</v>
+        <v>16.93864573768347</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>21.92630580687547</v>
+        <v>21.89636061243335</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.001326507260311</v>
+        <v>-0.7751647464556246</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.36474726715606</v>
+        <v>14.99447935253787</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>15.96374953427783</v>
+        <v>15.95499007832064</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-16.87613176508963</v>
+        <v>-16.71143888505541</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>13.79602260786157</v>
+        <v>13.69716498381301</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>17.05178761639383</v>
+        <v>17.16207630483417</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-10.87716580218493</v>
+        <v>-10.6870980750039</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.3893998262408659</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1959848860002487</v>
+        <v>-0.1959848860002486</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1370090731601378</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.08869225970798293</v>
+        <v>0.1038852464772132</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2164053589826603</v>
+        <v>0.2018481749043849</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3364943603635974</v>
+        <v>-0.3341318779613135</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.03488912790775325</v>
+        <v>0.03826001916618301</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0647236820020176</v>
+        <v>0.06564136221398342</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4569702792001626</v>
+        <v>-0.4523937100790706</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0912790937513578</v>
+        <v>0.09781829454327583</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.150278355247199</v>
+        <v>0.1608542445658092</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3753952794044542</v>
+        <v>-0.3754425907388992</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4668178770330753</v>
+        <v>0.4521982723958056</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5929600781994762</v>
+        <v>0.5854442512100236</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.02319293253310098</v>
+        <v>-0.01788482232745947</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2520819749409345</v>
+        <v>0.2641264497576691</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2789246409785768</v>
+        <v>0.2823083910729153</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2971501509419764</v>
+        <v>-0.2983727930617212</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2859485734914737</v>
+        <v>0.2862492977676544</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3518116899132277</v>
+        <v>0.3559528805385034</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.2234493349428012</v>
+        <v>-0.2247359327026559</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>7.557902516550569</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-3.713764448128071</v>
+        <v>-3.713764448128065</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.05107899188309117</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.522545934636125</v>
+        <v>6.734890085610451</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1725908553796355</v>
+        <v>-0.1834668541247863</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-11.25548700543685</v>
+        <v>-11.17181369496741</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.468872220267666</v>
+        <v>-6.940177688040454</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-14.5173924757765</v>
+        <v>-14.60392890661655</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-29.70598104477686</v>
+        <v>-29.10191556649411</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.109701764016363</v>
+        <v>1.712916312878328</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-5.092780100122597</v>
+        <v>-5.346405495619103</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-18.30398420349812</v>
+        <v>-18.68500508160139</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>22.3207126545155</v>
+        <v>22.91225553001536</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.47166586869054</v>
+        <v>15.25165664125249</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.612794135764406</v>
+        <v>3.96197781669549</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.222316294612622</v>
+        <v>7.144167973627168</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1766995941294444</v>
+        <v>0.4009009667916765</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-16.1316335956561</v>
+        <v>-15.23682355702767</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>13.07884547396836</v>
+        <v>12.3540628403463</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.466820168197595</v>
+        <v>5.779170944912296</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-8.096512719214369</v>
+        <v>-8.324168754219849</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1728671538962848</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.08494260001147912</v>
+        <v>-0.08494260001147899</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.0007568010324086983</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1592387200144439</v>
+        <v>0.1384320737652872</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.003975542722147</v>
+        <v>-0.004354319402168945</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2363430064750732</v>
+        <v>-0.2346451052153119</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1071718418551187</v>
+        <v>-0.09875828647972458</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2042312821820322</v>
+        <v>-0.2062008328921461</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4156797707151599</v>
+        <v>-0.41041711591772</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03530019850531101</v>
+        <v>0.02806576460214389</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.08838822741295389</v>
+        <v>-0.09208825980760459</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3132432266759607</v>
+        <v>-0.3215407673170734</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5671016997699065</v>
+        <v>0.5883224092476627</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3906579618407273</v>
+        <v>0.3831941340450438</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.0921269800151968</v>
+        <v>0.1008383695312681</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1104860940084312</v>
+        <v>0.1127955849631151</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.002768563692008499</v>
+        <v>0.005583109666941608</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.2518725272517431</v>
+        <v>-0.2413547666048383</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2461712698633206</v>
+        <v>0.2331922560855048</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1039663721940493</v>
+        <v>0.1093293669083168</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1507213102111543</v>
+        <v>-0.1555602292202253</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>5.271752262985641</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-10.0980020618514</v>
+        <v>-10.09800206185141</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.114047339537561</v>
@@ -1297,7 +1297,7 @@
         <v>1.012224202506207</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-19.9883259765514</v>
+        <v>-19.98832597655139</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.782791121125517</v>
@@ -1306,7 +1306,7 @@
         <v>3.142629741619551</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-14.94275101848705</v>
+        <v>-14.94275101848707</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.309136708836877</v>
+        <v>-0.9040329023783662</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.984693961386976</v>
+        <v>-2.354854969267395</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-18.27959261488824</v>
+        <v>-18.18306462365217</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.295078652839379</v>
+        <v>-5.527238429863108</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.606754161767067</v>
+        <v>-5.768943380894475</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-26.3206495080518</v>
+        <v>-26.68732391940691</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.328482892693705</v>
+        <v>-1.499484066400847</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.951234461033156</v>
+        <v>-1.561759264848662</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-19.81667214296054</v>
+        <v>-20.57158024539709</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.33744383549675</v>
+        <v>13.27793356532587</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.87518876700019</v>
+        <v>12.50093328452726</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-2.752530788741241</v>
+        <v>-2.218684487169517</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.917800517081862</v>
+        <v>7.781653341799383</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.590639299778156</v>
+        <v>7.629389384927372</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-13.51104079406524</v>
+        <v>-13.3628676655361</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.60756436020529</v>
+        <v>8.653864409920642</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.01106054131834</v>
+        <v>7.985082817014389</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-9.674012600709659</v>
+        <v>-10.02774313601965</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1045802649645951</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.2003227159698426</v>
+        <v>-0.2003227159698427</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.01618750488137131</v>
@@ -1402,7 +1402,7 @@
         <v>0.01470797841132402</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.2904375001247044</v>
+        <v>-0.2904375001247042</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.063282496909047</v>
@@ -1411,7 +1411,7 @@
         <v>0.05257320601174151</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.2499780095864007</v>
+        <v>-0.2499780095864009</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.02490835729837428</v>
+        <v>-0.01586096473145805</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.037297966262436</v>
+        <v>-0.04376481853695627</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3453623117552469</v>
+        <v>-0.3304582143268017</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.08700584825388294</v>
+        <v>-0.0760739243252375</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.09153239725430051</v>
+        <v>-0.07979958413924559</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.365320629607367</v>
+        <v>-0.372842346385259</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.02066301381220215</v>
+        <v>-0.02266057155076842</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.03037476747360897</v>
+        <v>-0.02614679410613794</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3192920676688938</v>
+        <v>-0.3292843140989614</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2901582122114916</v>
+        <v>0.2846141435042128</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2747338830628418</v>
+        <v>0.2681718601414775</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.05445156891392035</v>
+        <v>-0.04380199504335042</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1058601462427098</v>
+        <v>0.1190355260178568</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1153018224333551</v>
+        <v>0.1151619178728716</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.207007977662041</v>
+        <v>-0.2043603895614636</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1513978583069439</v>
+        <v>0.1526191439188704</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1412573422068281</v>
+        <v>0.1411002323076118</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1717906991460311</v>
+        <v>-0.1735100836115915</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2621888959773405</v>
+        <v>-0.8343151526809647</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.0264056136448</v>
+        <v>-1.823534180761508</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-41.69475489348427</v>
+        <v>-41.58230018036328</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13.32414710545096</v>
+        <v>13.66774945080106</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.709419814727995</v>
+        <v>-7.123485235427532</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-52.91948673135036</v>
+        <v>-53.08471959660034</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>9.416374105180719</v>
+        <v>9.045080280796141</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.118681729136985</v>
+        <v>-1.979736866258484</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-45.11236161365839</v>
+        <v>-45.70145167897449</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>19.39284500638236</v>
+        <v>18.91655751912531</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>16.88036780691343</v>
+        <v>17.79527865258193</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-27.00313819279076</v>
+        <v>-26.97349884190627</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>30.02788356810622</v>
+        <v>30.98784799471968</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>12.38354964055784</v>
+        <v>12.08049703494631</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-38.45018920809023</v>
+        <v>-38.87681900074558</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>22.85982655530672</v>
+        <v>22.71249840248327</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>11.46562817772058</v>
+        <v>12.76025329541976</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-34.54689820755401</v>
+        <v>-34.28539278039767</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.009269568200435506</v>
+        <v>-0.02104698158763436</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.04405471603307087</v>
+        <v>-0.03757518339609636</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.852788352429484</v>
+        <v>-0.8518441548034296</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2170310999499958</v>
+        <v>0.2202408489529355</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1095263021945774</v>
+        <v>-0.1106410320235081</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.8484930016493144</v>
+        <v>-0.8416272885715534</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1717583806515918</v>
+        <v>0.1661713521386691</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.03749088070471154</v>
+        <v>-0.03256641318037541</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.833269223257426</v>
+        <v>-0.8331746984951122</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5058014435683121</v>
+        <v>0.4828001336765879</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4414037372203124</v>
+        <v>0.471229781860687</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.6754726656571453</v>
+        <v>-0.6777114569302747</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5833737988935652</v>
+        <v>0.6135306169303836</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2403693570286838</v>
+        <v>0.2326979086831561</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.7344421863136746</v>
+        <v>-0.7413487417285236</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4869877593341757</v>
+        <v>0.4938970848411985</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2507644501705343</v>
+        <v>0.2741429618198816</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.7362900949396592</v>
+        <v>-0.734351237068764</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-7.332596541916048</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-13.60791918670482</v>
+        <v>-13.60791918670484</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>12.89176640339889</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>4.523997137948473</v>
+        <v>3.841689467521817</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-14.15547181005496</v>
+        <v>-14.66664152596309</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-8.541153850362418</v>
+        <v>-8.891140220098853</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5.493113285901414</v>
+        <v>5.341583670484773</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-15.50288631391782</v>
+        <v>-15.59474114090629</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-21.25128338785197</v>
+        <v>-21.62406258453769</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>7.504856424035586</v>
+        <v>7.202513296286705</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-12.91898646728491</v>
+        <v>-12.6059892734678</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-13.0612622514924</v>
+        <v>-12.50246903082569</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>21.26237997298277</v>
+        <v>20.92501648780033</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.036816681990638</v>
+        <v>3.579265983905235</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7.035866804633217</v>
+        <v>7.838134247258775</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>21.02646186044162</v>
+        <v>20.87002054423825</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.4775877623902596</v>
+        <v>0.5142042592241541</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-5.79065546393777</v>
+        <v>-5.626452892906068</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>19.20357232743054</v>
+        <v>18.68205646571354</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-0.4753502291958999</v>
+        <v>0.1517528433504953</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-1.820039377319265</v>
+        <v>-1.052385125720088</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.1148792861376491</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.2131943347832115</v>
+        <v>-0.2131943347832118</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2258762266508015</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.08147257301934602</v>
+        <v>0.07127468840047625</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2597635920011197</v>
+        <v>-0.2640078703863678</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1578792333298745</v>
+        <v>-0.1639629050893526</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.07968316238252361</v>
+        <v>0.07958665087483635</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.231955872635328</v>
+        <v>-0.2336374109627508</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3119232146367621</v>
+        <v>-0.3179052769728699</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.12765470351734</v>
+        <v>0.1214534400820322</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2157604987864799</v>
+        <v>-0.2086452953243858</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.220312848955714</v>
+        <v>-0.2119320021154719</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.4609168518729693</v>
+        <v>0.4660114522907989</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.0672778193533061</v>
+        <v>0.07455105161539925</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.15177193259114</v>
+        <v>0.1743377369801064</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.3515251117759189</v>
+        <v>0.3564473497687198</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.00744248415458543</v>
+        <v>0.007685945641441287</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.0974602703893014</v>
+        <v>-0.09234088083661358</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3591898018299499</v>
+        <v>0.3505717018556779</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.01105921065563252</v>
+        <v>0.002665159169565931</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.0350101419026909</v>
+        <v>-0.02031524580840623</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>1.379417724079784</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-19.92101316305883</v>
+        <v>-19.92101316305884</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>9.078964958023505</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>10.4192033364199</v>
+        <v>11.1146887818314</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.2236198341451</v>
+        <v>-3.799459261421804</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-25.23626089488165</v>
+        <v>-24.76486303216778</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3.769723601433886</v>
+        <v>3.549037273513823</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-9.789679208069346</v>
+        <v>-10.00537316086161</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-35.67086372464184</v>
+        <v>-35.78758747408467</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>8.512329429779045</v>
+        <v>9.191336704785543</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-5.259009174109231</v>
+        <v>-5.497757182265871</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-28.87406501283249</v>
+        <v>-29.10387351985836</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>21.88976099204818</v>
+        <v>22.48392128111193</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.214330886773565</v>
+        <v>7.18032651616483</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-14.62957175421174</v>
+        <v>-14.20227435057665</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>14.39264062259547</v>
+        <v>14.13172880410487</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.445293517610096</v>
+        <v>1.075269441164092</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-26.16310999983872</v>
+        <v>-25.96944475580158</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>16.20949316950158</v>
+        <v>17.07467513092663</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.296893440236811</v>
+        <v>2.464891811272484</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-21.53948111716961</v>
+        <v>-21.77198853169091</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.03355064413192674</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.4845253266751251</v>
+        <v>-0.4845253266751252</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.1555986202250747</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.2416651044855467</v>
+        <v>0.25183339009636</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.09673306222175371</v>
+        <v>-0.0887466462778391</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5794907885436407</v>
+        <v>-0.5692585124543671</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.06136358209702047</v>
+        <v>0.05791429061267377</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1566612123625752</v>
+        <v>-0.1641045634943084</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.5885249644346486</v>
+        <v>-0.5858417158480481</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1630172456586565</v>
+        <v>0.1745318404995931</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1033312232073232</v>
+        <v>-0.1051445984102832</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.5594858450385902</v>
+        <v>-0.5587120138936564</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.5790633198371764</v>
+        <v>0.5982759924945129</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1903653105357795</v>
+        <v>0.1906842200420048</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.3810574420489074</v>
+        <v>-0.3702232313084354</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2575783167243861</v>
+        <v>0.2571379647534695</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.0255638492600878</v>
+        <v>0.02107224662311084</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.4655792889958444</v>
+        <v>-0.462059778280027</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3369985746559148</v>
+        <v>0.3579678608933291</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.04853801029141001</v>
+        <v>0.0530555924508687</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.4508873220409277</v>
+        <v>-0.4472142996447705</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-7.407969234706114</v>
+        <v>-7.654597354501999</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-3.252039611496466</v>
+        <v>-3.898201182302106</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-22.09600283773011</v>
+        <v>-22.53844490714829</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-7.124724647006995</v>
+        <v>-6.663192595138693</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-4.557291471038223</v>
+        <v>-4.092765404870752</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-22.06891614324119</v>
+        <v>-22.27829822317317</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-5.739288126779947</v>
+        <v>-5.52280698983482</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-2.654732511266989</v>
+        <v>-2.381413457372793</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-20.62345619297436</v>
+        <v>-20.84150598903156</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.482618353165835</v>
+        <v>2.903789450091553</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>7.448705144144705</v>
+        <v>6.823430927761409</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-11.83713712300926</v>
+        <v>-12.1656968712005</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.216318827543622</v>
+        <v>3.140886780245225</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>5.326718902849962</v>
+        <v>5.370057081975602</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-12.82470629962836</v>
+        <v>-12.46763703632841</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.386260159619942</v>
+        <v>1.781209093632348</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>4.694633815824732</v>
+        <v>4.882887912699008</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-14.13806431455658</v>
+        <v>-13.87607397391604</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1566440893616586</v>
+        <v>-0.1586589256555621</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.06710899775815969</v>
+        <v>-0.07841961187751079</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.4567382280282847</v>
+        <v>-0.462031036706601</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1175654374711347</v>
+        <v>-0.1097588938786544</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.07610406154841044</v>
+        <v>-0.06722109076381641</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.3619250981465495</v>
+        <v>-0.362631348896315</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.1072355354560548</v>
+        <v>-0.1021818909549104</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.04988207752510578</v>
+        <v>-0.04401620127681518</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.3815727017451055</v>
+        <v>-0.3836517196607806</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.07992049250168549</v>
+        <v>0.06540715852183668</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1728627762672371</v>
+        <v>0.1551174914843431</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.2761175151332528</v>
+        <v>-0.2796131775110936</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.05923371288602406</v>
+        <v>0.0568139331778879</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.09525920009514918</v>
+        <v>0.09583030074404388</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.2304410222905821</v>
+        <v>-0.2206963849843737</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.02746600238100363</v>
+        <v>0.03573088405895814</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.09213468750393908</v>
+        <v>0.09687371887589476</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.2785468477288417</v>
+        <v>-0.2732767748347235</v>
       </c>
     </row>
     <row r="52">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>7.128400282217416</v>
+        <v>6.97971005041271</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>2.941750822230564</v>
+        <v>2.994427414760397</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-13.96663987759756</v>
+        <v>-13.90813571248935</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>4.877688901300282</v>
+        <v>4.934596753459911</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-1.293165092596736</v>
+        <v>-1.339119236010929</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-22.96494137199211</v>
+        <v>-22.59935265900351</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>6.629471754229825</v>
+        <v>6.617307866089862</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>1.298946906732802</v>
+        <v>1.361878455182794</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-17.76069577420958</v>
+        <v>-17.72488897209104</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>12.01601455899035</v>
+        <v>12.04649934631054</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>7.727016952505291</v>
+        <v>7.784178342747322</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-9.026550180722198</v>
+        <v>-9.056520852579894</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>9.638685781970205</v>
+        <v>9.600897679286318</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>3.288775448332949</v>
+        <v>3.403714802603564</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-18.41907749139816</v>
+        <v>-18.47539421862913</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>10.01586625932303</v>
+        <v>10.1255061213395</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>4.843170367286774</v>
+        <v>4.879701161351945</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-14.52220682569919</v>
+        <v>-14.36228354104736</v>
       </c>
     </row>
     <row r="55">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.1562003701094691</v>
+        <v>0.1539452055236408</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.06444703788917892</v>
+        <v>0.06680649670037425</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.3063544612649821</v>
+        <v>-0.3055214054282663</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.07911501674574621</v>
+        <v>0.08007309476076822</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.02083603495227598</v>
+        <v>-0.02146642386824851</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.374530590891067</v>
+        <v>-0.3701539165024711</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1239129020072572</v>
+        <v>0.124221526481781</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.02407619064649809</v>
+        <v>0.02569698190190597</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.3320220005879309</v>
+        <v>-0.3331277156588693</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.2783620311816938</v>
+        <v>0.2819498428857127</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.1779752865258107</v>
+        <v>0.1833251150700982</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.2085838218477214</v>
+        <v>-0.206389538062297</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.1622094028748448</v>
+        <v>0.1632809460991245</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.05534550612231245</v>
+        <v>0.05779636534047361</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.3121471415525132</v>
+        <v>-0.3116461794335342</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1944761682302179</v>
+        <v>0.1971467787513608</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.09368890438017309</v>
+        <v>0.09481914524578799</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.2799864025494337</v>
+        <v>-0.2776682623901196</v>
       </c>
     </row>
     <row r="58">
